--- a/starterkit/excel-vba/__PREFIX__Control.xlsx
+++ b/starterkit/excel-vba/__PREFIX__Control.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF45335-5316-4C9A-8443-CC62CB94C6CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF8D7C-656D-4E29-BDB0-B83C712EC93B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>embed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>branch-cmt</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -621,13 +625,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -765,25 +769,34 @@
     <row r="14" spans="1:5" s="13" customFormat="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" s="14" customFormat="1"/>
-    <row r="16" spans="1:5" s="14" customFormat="1">
-      <c r="B16" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="15" spans="1:5" s="13" customFormat="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" s="14" customFormat="1"/>
     <row r="17" spans="2:2" s="14" customFormat="1">
       <c r="B17" s="14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:2" s="14" customFormat="1">
       <c r="B18" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="14" customFormat="1">
+      <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
     </row>
